--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wzh\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006AA7F9-632D-4967-A022-7599D23550D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +25,80 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUR of II-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUR of II-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASUR of IIb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLCNN</t>
+  </si>
+  <si>
+    <t>ESVMs</t>
+  </si>
+  <si>
+    <t>BN3</t>
+  </si>
+  <si>
+    <t>CNN-1</t>
+  </si>
+  <si>
+    <t>MCNN-1</t>
+  </si>
+  <si>
+    <t>ERP-CapsNet</t>
+  </si>
+  <si>
+    <t>ST-CapsNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsCNN-TL-ESVM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEGNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved EEGNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepConvNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +122,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +412,412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83.7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>70.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>59.4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>50.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D6" s="1">
+        <v>77.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>85.9</v>
+      </c>
+      <c r="H6" s="1">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="G7" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>73.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="G8" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="H8" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43.6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60.9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>71.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="G9" s="1">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D10" s="3">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3">
+        <v>66.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>78.5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>84.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="I10" s="1">
+        <v>30.3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>63.8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>78.2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>84.4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E12" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F12" s="1">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G12" s="1">
+        <v>86.3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>88.1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>30.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>